--- a/evaluation/results/hybrid/autoencoder/LOF/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/LOF/split_4/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5327715355805244</v>
+        <v>0.5936329588014981</v>
       </c>
       <c r="C2">
-        <v>0.6842105263157895</v>
+        <v>0.5528541226215645</v>
       </c>
       <c r="D2">
-        <v>0.1217228464419476</v>
+        <v>0.9794007490636704</v>
       </c>
       <c r="E2">
-        <v>0.2066772655007949</v>
+        <v>0.7067567567567568</v>
       </c>
       <c r="F2">
-        <v>0.1456745853877185</v>
+        <v>0.8484750162232316</v>
       </c>
       <c r="G2">
-        <v>0.1256972852361473</v>
+        <v>0.9511751538891998</v>
       </c>
       <c r="H2">
-        <v>0.5327715355805243</v>
+        <v>0.6857176422730014</v>
       </c>
       <c r="I2">
-        <v>65</v>
+        <v>523</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="K2">
-        <v>504</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>469</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5179856115107914</v>
+        <v>0.9098360655737705</v>
       </c>
       <c r="C2">
-        <v>0.9438202247191011</v>
+        <v>0.2078651685393259</v>
       </c>
       <c r="D2">
-        <v>0.6688785666887856</v>
+        <v>0.3384146341463415</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.6842105263157895</v>
+        <v>0.5528541226215645</v>
       </c>
       <c r="C3">
-        <v>0.1217228464419476</v>
+        <v>0.9794007490636704</v>
       </c>
       <c r="D3">
-        <v>0.2066772655007949</v>
+        <v>0.7067567567567568</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5327715355805244</v>
+        <v>0.5936329588014981</v>
       </c>
       <c r="C4">
-        <v>0.5327715355805244</v>
+        <v>0.5936329588014981</v>
       </c>
       <c r="D4">
-        <v>0.5327715355805244</v>
+        <v>0.5936329588014981</v>
       </c>
       <c r="E4">
-        <v>0.5327715355805244</v>
+        <v>0.5936329588014981</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6010980689132904</v>
+        <v>0.7313450940976676</v>
       </c>
       <c r="C5">
-        <v>0.5327715355805244</v>
+        <v>0.5936329588014981</v>
       </c>
       <c r="D5">
-        <v>0.4377779160947903</v>
+        <v>0.5225856954515491</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.6010980689132904</v>
+        <v>0.7313450940976676</v>
       </c>
       <c r="C6">
-        <v>0.5327715355805244</v>
+        <v>0.5936329588014981</v>
       </c>
       <c r="D6">
-        <v>0.4377779160947902</v>
+        <v>0.5225856954515491</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>504</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>469</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>65</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
